--- a/пользователи.xlsx
+++ b/пользователи.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,6 +430,14 @@
     <col width="25" customWidth="1" min="7" max="7"/>
     <col width="25" customWidth="1" min="8" max="8"/>
     <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="25" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="25" customWidth="1" min="16" max="16"/>
+    <col width="25" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -440,42 +448,82 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Количество_заявок</t>
+          <t>Кто пригласил</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>last_name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Фамилия Имя Отчество</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Город</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Телефон</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Количество рефералов</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Номер телефона</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Реферальная ссылка</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Список пользователей зарегистрированных по реферальной ссылке</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Бонус 1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Бонус 2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>Сумма на счету для вывода</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Статус (роль)</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Баланс (подписка)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Количество рефералов по уровням</t>
         </is>
       </c>
     </row>
@@ -483,54 +531,247 @@
       <c r="A2" t="n">
         <v>5669831950</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1089138631</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>0</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>timmn2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://t.me/TeamCapital_bot?start=5669831950</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>{"1":0,"2":0, "3":0,"4":0,"5":0}</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>6075652143</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5669831950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Winn</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Russo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>WinnRusso</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>22222</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://t.me/TeamCapital_bot?start=6075652143</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[1116961552, 6725727158]</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>{"1": 2, "2": 5, "3": 4, "4": 4, "5": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5635586329</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1089138631</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Техподдержка</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Stoloto_support</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://t.me/Timmn_bot?start=5635586329</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>{"1":0,"2":0, "3":0,"4":0,"5":0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>1089138631</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Сергеев Иван Анатольевич</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>79883376699</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mikhail</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Timmn3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>sg</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>вап</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>11111</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://t.me/TeamCapital_bot?start=1089138631</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[5669831950]</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>{"1": 5, "2": 3, "3": 0, "4": 0, "5": 0}</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/пользователи.xlsx
+++ b/пользователи.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,7 @@
     <col width="25" customWidth="1" min="15" max="15"/>
     <col width="25" customWidth="1" min="16" max="16"/>
     <col width="25" customWidth="1" min="17" max="17"/>
+    <col width="25" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -526,14 +527,19 @@
           <t>Количество рефералов по уровням</t>
         </is>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Дата регистрации</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5669831950</v>
+        <v>566983195</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1089138631</t>
+          <t>1089138631.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -581,56 +587,45 @@
           <t>{"1":0,"2":0, "3":0,"4":0,"5":0}</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2023.11.20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6075652143</v>
+        <v>5669831950</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5669831950</t>
+          <t>563558632.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Winn</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Russo</t>
-        </is>
-      </c>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WinnRusso</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
+          <t>timmn2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>22222</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://t.me/TeamCapital_bot?start=6075652143</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[1116961552, 6725727158]</t>
-        </is>
-      </c>
+          <t>https://t.me/Timmn_bot?start=5669831950</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -649,42 +644,60 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"1": 2, "2": 5, "3": 4, "4": 4, "5": 0}</t>
+          <t>{"1": 1, "2": 1, "3": 0, "4": 0, "5": 0}</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2023.11.23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5635586329</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1089138631</t>
-        </is>
-      </c>
+        <v>1089138631</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Техподдержка</t>
+          <t>Mikhail</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Stoloto_support</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>Timmn3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>89887774455</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://t.me/Timmn_bot?start=5635586329</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://t.me/TeamCapital_bot?start=1089138631</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[5669831950]</t>
+        </is>
+      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -703,53 +716,46 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"1":0,"2":0, "3":0,"4":0,"5":0}</t>
+          <t>{"1": 2, "2": 1, "3": 1, "4": 0, "5": 0}</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2023.11.19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1089138631</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
+        <v>5635586329</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mikhail</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>Техподдержка</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Timmn3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>sg</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>вап</t>
-        </is>
-      </c>
+          <t>Stoloto_support</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>11111</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://t.me/TeamCapital_bot?start=1089138631</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[5669831950]</t>
-        </is>
-      </c>
+          <t>https://t.me/Timmn_bot?start=5635586329</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -770,7 +776,144 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"1": 5, "2": 3, "3": 0, "4": 0, "5": 0}</t>
+          <t>{"1":0,"2":0, "3":0,"4":0,"5":0}</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2023.11.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6075652143</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5669831950.0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Winn</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Russo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>WinnRusso</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>22222</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://t.me/TeamCapital_bot?start=6075652143</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[1116961552, 6725727158]</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>{"1":0,"2":0, "3":0,"4":0,"5":0}</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2023.11.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6744789252</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6075652143.0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Емельян Лыткин</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://t.me/Timmn_bot?start=6744789252</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>{"1":0,"2":0, "3":0,"4":0,"5":0}</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2023.11.26</t>
         </is>
       </c>
     </row>
